--- a/日常学习.xlsx
+++ b/日常学习.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="英语学习" sheetId="1" r:id="rId1"/>
     <sheet name="c++" sheetId="2" r:id="rId2"/>
     <sheet name="语音知识" sheetId="3" r:id="rId3"/>
     <sheet name="小知识" sheetId="4" r:id="rId4"/>
+    <sheet name="写代码" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -95,11 +96,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="58" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -383,7 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
@@ -403,7 +404,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>44149</v>
       </c>
       <c r="B3" t="s">
@@ -1084,6 +1085,66 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B62:I62"/>
     <mergeCell ref="B70:I70"/>
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B65:I65"/>
@@ -1091,66 +1152,6 @@
     <mergeCell ref="B67:I67"/>
     <mergeCell ref="B68:I68"/>
     <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1197,13 +1198,13 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1220,4 +1221,18 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>